--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/52_Kocaeli_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/52_Kocaeli_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E24D2F42-1196-4485-95A7-9EEDAD5A302F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A78E7C3B-0C84-4337-8C3A-FD4F000110DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{F2FE38AF-AD35-4AD5-8272-C66ACC3DE3E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{E0C1B3D2-4E8B-4299-B4F5-A796977E9B10}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -953,14 +953,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B0109EAF-7207-4ACD-BC23-FC51A8EA59AC}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BFFA46B2-CBB7-4FE7-B60D-1AFEAF28288B}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{16437E14-9DA4-4068-9A0E-E37DC5A2079B}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E96F74B5-2A7D-4BBC-8D0F-D8C59525A780}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B3F2F724-C643-42E2-A98F-BB550D5652DE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{2E4D63B2-AF49-4E68-8944-E552297D377D}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{625BBBEA-28A7-4D6B-A5BE-536B17A5EC23}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{89C163B4-412C-4BF9-B798-0BA597DB9342}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{536DB56A-D22B-411F-A3ED-D877F4B17C92}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7F12357E-E96C-4BBB-BC00-0BDC125371F7}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{EE41D72E-98E1-4E40-931D-00DC64E5D5F3}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{3C4806B5-B87A-4A7B-BD6D-0A2E15AC7CF0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{6819C084-7CDA-430F-8B74-4F3A8E56BD4E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{F5CDB86A-931C-4055-989E-03EFDFDDBDB3}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F151091A-63AD-406D-9D70-391A0969DA4C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{8E688523-2CFF-43F4-901E-C2F84940BBDA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5908BA20-FFA8-4980-8E92-FCB0C100345F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DB467C-21D6-42B2-B302-E2A92F255F54}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2622,18 +2622,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D1340F5-DB05-43E5-8CB4-485F5433AE3D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97FB5BA1-D107-4902-83D3-938E71B801F3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{99E37E3D-C71F-4441-BC8E-904EBE7F0A54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{64A48234-13E6-464A-89C7-6EF39E0A6489}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3F29C4A5-0537-4D5D-A66E-E9C006AA1492}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D596F01-96C3-4B5E-81D5-DA750A39DF9D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C39D67D-32BC-4343-A76C-525DB84982DA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9FC712A-5543-45DE-A51D-CCEC9A446358}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97AD5CC5-6DC8-45AE-B9F9-B7702BF8B308}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{565A4122-4A23-4A65-AD78-016C63530332}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB24521D-D55E-4288-9F56-B2D4C7ED689A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7241E281-55B0-4BE6-8E3C-C29615E1AD0F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED6F7F75-6634-481F-8A26-77D9C9285543}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25005B27-AF74-4E38-A168-FFBF5F2EECB2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{31AEF8CF-A7DA-4C37-9993-52936EBBD0A3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9EE57706-EBCE-4CA4-AE62-DC8581D1B061}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2482E484-526C-48C6-899E-0AE23A162A93}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A7D770C2-6A93-4B72-AC88-D03217A1842B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{153A7644-1C02-4C64-B5BC-82A631CB1A07}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B6B8BBE-A189-45B0-B1A6-8D8B71C8DDEB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84308015-25B0-4DA6-8888-0EA56891E0A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{554E5334-1DE9-437C-9C54-F4EF4064F39E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F3C8B3D-54DB-4A98-BBD6-F9FCFAB0135C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C541876E-84FA-404F-BEDF-22D1F7639AB0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2646,7 +2646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006D32AE-A35C-43A9-9E1F-3CB58C81200F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81F7003-9A42-4143-B173-59CEC8386537}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3922,18 +3922,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40B6B15F-EB08-4006-99F8-907B28595902}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49A33D03-A1FD-456E-ADD8-7B6B3F79D4B3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{02547EF3-531F-47B8-9866-6BDB22F16AA0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{116410E0-6DFB-4177-B102-A24D4EDA3E01}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7A7405C6-A151-4034-BB06-22747924FF85}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{46FF82D2-BF49-4741-8905-6FCC94738E2D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DE65482-3D9F-4060-8AF7-A4F74BF53E8A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D385B186-007B-415F-9F61-20DA30D6BDFC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1E7266F-406B-462C-879E-2FEE3B15CF49}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B694DD6-4459-4555-B94E-58D5F6FA3D66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B44FC6C7-9389-4468-807E-12C642DDA26E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38AF631E-23BC-4507-8932-7AF33D1B7F8F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E5F72A8-BC82-459E-9481-DB75B1F51306}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8002DDD0-7CB6-4687-989C-F64E243662EF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6A15270C-EF1D-4BE9-A34C-4CB900779CC7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B0480C3-BB4A-43E2-8DE8-62C07F214349}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5CF5D647-C35C-4EDB-8C4A-761480EFA474}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5296FF4F-F38B-4997-9836-0C2558FDBD56}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4D7B558-F312-48C9-96F8-9729DD86D701}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D43D380-7917-4CA9-A314-0002C765E43E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{463D48DA-364E-4369-B681-1BC63D7435A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01073E84-E8CF-4497-9E00-F1A25991D6D2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EAE0D1C6-85A2-4877-A200-C2359A7B15D0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF9C2F0D-2CAD-44A5-8217-1E8F1F462A17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3946,7 +3946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B60E0A-3A2C-46F9-BB7D-FE3582AA9888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FA804B-F6EE-4BE8-B6F6-1649F3ED8DDC}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5220,18 +5220,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93330C3C-D336-41DF-A368-FBFCFD8B9942}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77F8E060-A117-4044-8514-843AB69D6208}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{61D1116F-BF5C-4F49-B511-7A376DDD6EC4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4D9E79DA-8028-4445-8D9E-AAF2CE48A391}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8F10289-029A-4F91-9625-4B84C897FCC5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{27DAEFA1-91BB-4941-BF8E-731ACD5528C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA053360-80A0-4D42-A5C9-4B322AD2B3ED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E23AEA1-383D-4929-834C-269B57E63D28}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C5DF96F7-8019-4877-AF2B-D7393254EFF1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35595759-4CAD-465F-921F-EC3DDD270F44}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62675EC0-D06D-4FAF-9BB2-42CD9DD9698D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{556E0D1D-9EC7-4F57-8B16-BA73F53A87C7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FF9BF6B-FB86-477B-87BF-91E5A306DCE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4ACD6A76-D0A9-4F95-A05A-04486A765DD1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{32EF0B11-87DF-4FEA-869C-39DDB4CA7F86}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8CEDC527-D3E1-4135-952D-744563C6F270}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C7BC18D-6952-4104-99FD-B79B9FFCFD65}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A02B18C-9680-4C38-9EC6-47BD512DD7B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4BAA6C1-B51A-47A3-B3DE-F916FE9C0ABC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F5EC6EB9-B43B-4613-ACB5-3C32D5386B4D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD6B0ACE-3EE6-420C-B23F-659AD294AFCA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DF617A2-3038-4004-9FEC-EC5A169E4A87}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{532C371F-27E2-48D5-B494-AF012911A7EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D36F7998-7015-47D0-A5C3-8E77F23CCB74}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5244,7 +5244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51803C99-DCE7-48A7-974A-6193B0646D9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DF09F9-B441-4EE6-A5AE-A9867D2FA8BC}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6516,18 +6516,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B87D9E3-8052-4657-B81A-CCF8DCAE72D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86FF06C0-D678-4B2D-AB43-9BDA3F7413FE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E1EEA62E-3B99-4B1E-89D5-BF36C37093E6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC9451CF-4530-4573-940B-5E80CFFECDB7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67B4E871-BC97-43B6-9817-7AF167629AAF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{028A1756-4D0C-4261-9DD9-38BCD8C8ACA2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{910DEE90-A4A7-49DA-9364-1D8307DC390B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D27E716E-040D-46A7-9AD2-1EC01684BC43}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99940414-6861-4472-B804-E771F994411D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{584A87A4-368E-4C3B-9DE8-98028BB15345}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56C6B0D0-A511-4AD2-8BFC-AF9C43B9DC81}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88C7799A-D1AB-4AC9-BAAF-EAFAEB41F4DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C9BFFDA-9BE1-4FF5-AB6D-D76CBA9CE10B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{078EF484-E439-4159-830B-32DFADA7E6B8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1DBF3D9-414B-4023-AC22-9852E29E81D3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB4E4656-E0D7-41D9-A95A-9EB32FBAA04B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C355CF80-A90A-4CF6-AB20-4C24FD777FF0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67F312C7-B754-4A5E-9A88-16F32090E6E1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D22F981-C4AA-4211-9169-8AB56D32259A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7AB8AD8E-D4E1-43A3-8D2E-7F97198E5529}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52C4772F-114C-442A-A0A6-306CDB6E3AD4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C986766-E310-4C7D-9A99-68034892DAE0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD88534E-B62B-48C3-9C00-2EC99E60BD1B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BE15D3A-61E5-4305-81A8-268672EC412A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6540,7 +6540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83E0ECC-2892-4F1B-8B9E-E3B3F4753BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C152A-E6D6-4002-9E10-D600C1CCFB61}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7829,18 +7829,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8741D3D-0298-47AA-8A3F-3EF0EBEC9798}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45737387-12B8-4916-A3B1-BEF70B613BBA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E329CC30-604E-49C3-8390-9AE5AD93F98C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA4359A1-D810-433E-8EEB-119AC83175C5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1A61136-57DC-40B3-9D67-F1F1FBD6CEBA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FDD1085D-E080-4982-9348-87F2BD3EA046}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72988952-7C57-4A1D-853A-F7650660D3B5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DE9494D7-79FB-46DA-ACA8-E7A41D780BBE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{10B862C9-6F30-4829-99D9-990005CD406D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2ADC706-6953-4585-BC2A-943968CDF740}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5A91192-2A6F-45A7-B935-30480CE273AD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6050168-387A-41A5-9337-D12F88A8514A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7B03151-24FD-419C-AF64-2FA390B7F206}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2091E83-3FF9-4E88-B23F-297543315D27}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{03660928-A2B7-487A-80E6-FEE59C05CC61}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{999BBAEF-3A53-42DA-AEB8-5E461F33E142}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4E15DCB-D6A0-48DD-9316-47D5221D3FB4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A73C1285-F8F9-43DF-BBB2-A8A94C9C712B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38613B90-06DE-4032-B407-646A3E384137}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C9A516D0-8025-48A6-B70C-2CFB3D062E52}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{839AE68F-71E1-4DD7-B60D-4F2D328A2C32}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3D5F949-BA92-49F8-9A2F-679E1F2194FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7949B07F-95B2-4B10-985C-99A337732767}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A0637BFB-B90C-4988-A9F6-2679B39A9B0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7853,7 +7853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA98E42A-B041-4DD6-B223-E5022A46222C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120AF9A8-7293-4724-9748-2D3C79960606}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9142,18 +9142,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5566AC3-288F-4C72-AB3E-6D53581E52EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D45DC97C-29F9-46DA-A720-1826B4B520D4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C7187371-A984-4D07-BB16-D7E00FBDB405}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A343731D-E619-4707-A383-ED623B54870D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C75221E-BB1B-4984-B9D1-90C8E51FF993}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A510A602-1C3A-45FA-A542-4988C36DE0E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B3C16FE-E261-4A53-AF0D-78E9F39AB8D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6EDABF19-C765-4ADF-ADF4-596B94C6D72D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA6ADDFD-847F-4FDE-8833-C34003CC761F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84DD8EFE-83AA-40F5-8317-0D26ACDD4C16}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24B980FD-7067-431B-AED0-ADDB9DD6E2B3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E4ED575-2392-432C-8716-97BE7A839DA3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8840C9C5-4B42-4E4D-8F70-0ED3EF229BC3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B29DB27A-A482-4E90-83EF-D555E4327752}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2E33A6CC-30F5-4CB2-88D0-0ACE15E02AC2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17099E4F-417B-4E26-A485-B057EF769326}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{621D4E68-52C4-49AF-8947-C0634390B9ED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5668C347-291B-429F-BAF3-21FCFE4245E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09159192-ADCE-4323-8791-7DEF3C481404}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{37496735-E086-48E4-AB72-8CDFDF1842B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BFC5D657-1470-4A7F-BE3F-92A371CF59C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{875E85FB-5EF6-41AA-B7A7-4BF4BB3A9328}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3666144E-4830-4222-8F2E-BA0359C94CE0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6279D97-F08A-4F9D-9991-8641BE1AE7E9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9166,7 +9166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9385A75-BC8B-4BA1-9C54-1E53490B5FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D74D6E-0740-4903-A0DF-B07E1533ED7B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10455,18 +10455,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D989575-938E-4CB1-A7C1-46636394FAEC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98631BFD-17A8-4A15-BFD5-265E2D75368A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D56FEB92-385F-4B11-9A39-6AB790FEFD10}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C523B7DA-BC1B-4E3A-94C0-87BA27965460}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{323313B4-CD62-4BFF-A763-2B5600CD4219}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{199AFA10-8AC1-4347-A4E5-86B8DD141E5C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{751F3D76-BC27-4ACC-8FE6-2578FD19BA44}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{94CDACB0-BD20-4E21-A039-5DE4CB30B38C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92AE7A23-5662-4BB3-85D7-4E72626BB75B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49051F7D-B2F5-438B-8120-E936366DC8A2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B2EC640-48D2-4F4D-BF22-031FA5468403}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A083332E-B2CC-4274-A99C-19890473223C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54C174F1-E7D2-4312-9149-F06D74DDBC22}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{521A6F28-C606-45C4-934E-CD7FFEA04C49}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{096B7B01-3B2B-4106-92CE-376EA49F6F6F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F627063D-AB23-495D-94F0-9E86C9EF89D6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{860663FB-AD38-42BF-8CD8-64825ED7D574}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC6B90AA-6F6A-482B-ABD6-382F9C61C3F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66200190-B00A-4A55-B2D6-2D91331CD55E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73E84795-87F7-49E0-B0D1-BE2AE90D47D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9607FA15-4561-4B0E-9857-658898595CF5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D09A8DC-A202-4F0B-8FA8-5B6B5D467D09}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5ACE41BA-B4D3-4941-B60E-F7E3D6A3AC45}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FDFC1BBD-129B-4D58-AD9C-DF3B805A881F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10479,7 +10479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1052A7-A4B1-4C60-9329-86353E3E8DE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF5864C-3875-4684-A508-76F198F25484}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11769,18 +11769,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4950714C-482D-4E4E-A607-094411196433}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64415019-9B9A-4463-A682-21960AFB2E8C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F2A5FB0E-4FE6-45E3-9C7A-05095BC61DFD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CBCEDFC6-5518-4BC3-9FE9-15F687BDB858}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97CF778C-D2C4-4B21-9DA1-70AE094570AC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA2FF874-680A-4DC2-920D-C4EF06C9CA5C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B74FA51-9430-4B0E-B05A-2116FB69D4F0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E859B95D-DBE2-41CD-9A7E-CB417334F991}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6DEFD367-A00D-4E95-BE8B-8F46D328A724}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A465D6B-B93C-4609-953D-B53D02331399}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5D4BF73-725E-487C-B4A0-B3DF0E750BA2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09B64BC8-9C67-470E-ABFF-445FF223C395}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40C1E1DD-1E5E-43DA-916A-17A5CB971DDF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5AB5346C-06E7-460F-B89E-FAC35B23BF68}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{661E881F-56C5-4CDC-8D0A-1DD99FD90532}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B906BC3B-A958-4B5A-BCFE-65E9963A2212}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7453730-BB6F-406F-8417-37476FA6A9EC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43984F4F-7F0B-4017-870C-52B1D256F66A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CF97D5D-C129-4D27-98ED-1C25B251AF01}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{48899CF1-4D22-41CA-9960-969A26BD38A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF63BF97-87B9-40AE-B494-EE920E2C4130}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6ED70AC-D8FE-4D01-AB54-9C932D2C7070}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A40DDA03-A398-4C36-A1EA-647D626B07C3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B4C9B21-B12D-4E77-9510-09F9024F1FE4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11793,7 +11793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B031FAC-38A1-4074-B077-959245C10B19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F65FEDE-066E-4875-8A2F-0DC5F1DC463D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -13083,18 +13083,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F54BFB36-4912-4FE8-8F87-99F87E4FD62D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02A56F7D-F768-4F87-8AD9-0DA9504714FD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E8931EC2-43C4-4445-BFD1-593DFB50140C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2BCEE994-323F-4317-B828-B6630B3CCD00}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{943461DA-5AF9-4AD2-ADD4-6D0D3694B4D1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95B8210E-B7EA-45A7-81DF-C506F9773386}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1ED889BE-6818-4D98-BEBB-BAA9D70AC827}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6320948-97B0-4298-A636-1064D78ED173}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D1757D1-F09E-40FD-829A-4EDF03FCF3D1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB3B334A-0733-4379-9DAF-EC67912F1A2D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3CCDF6B-D63E-4A8D-A6DB-3618FCFCFFE8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6682055-C610-4876-BAC9-96DC16024EB0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30C4B7F2-5C69-47BE-9369-7F7AED00F78C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03951326-49A9-44CF-B31D-070390433274}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D26E01C9-0360-4A10-B990-8A75EF95D63B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3B74BB96-C521-494B-BE2D-990925CC0716}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C865AE4-DF2E-4C39-A595-4DCF6C2577AC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D760EEF-B1CD-4692-82A5-89DC5075612B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{599FA895-C5A6-468A-981B-51C31C5E81B4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BBD612C2-2018-407B-A621-66492985F3FE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE2E6F8C-4091-4469-85BE-EF05EC18D787}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5677D961-2CBC-43D4-B778-1382F02C6D15}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F2556C1-F4C4-4894-AC7A-AD678658B442}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A5A9ED2-828F-4FDC-AA7B-E931C6B520B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13107,7 +13107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B3857E-58F0-4140-93B9-2979A4E41CED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2164B68C-BB0A-4F6A-B1AF-0391B8B4CD70}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -14391,18 +14391,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1109A2EA-63C9-44ED-8669-86B7EA17ED9E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98BF000E-53EA-430F-AC5D-308B36F19EE4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3FCB4035-71DC-48F1-8837-3B278F0A8BA2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06C0C91B-0C94-4513-A380-97F4E64E26DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D1DFBA6-F9F4-4178-9276-CD457AEB9184}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0349DB8A-379F-45C6-AAB5-13CC4718B275}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF0BF3B2-8420-4E88-BDB0-7174C7DA717E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC684E2B-C3EC-4AC4-8B02-94C8F3F587A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBCD9D04-10E0-4889-AA21-7F780770DAEA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DCB8CF37-C147-43F5-9761-426A1FB908A2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5978E76A-98E3-415F-ADEC-16763AE8DC92}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C302681-48A5-4B90-8EF6-83801842F362}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED0D20D7-4E24-4A40-90BB-203FFAA392EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF0D02C8-6A26-467B-9354-2BE9780DEEF2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{774AF727-5363-46C3-B594-524AF778E226}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D20C6E61-4A6E-4605-A7F6-4120B8115B47}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69215E09-3149-44EB-AD56-88570B70CE3A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A02BD337-245C-4C08-9F87-B1958BAD1D96}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2366F11D-4633-4165-9202-009552FF8693}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A7438058-2136-46F0-8D2F-7596CFBEF24E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{681EC95E-EFCC-435B-8C92-1D02BEA21589}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE252196-A12B-4B37-BF0D-5B5CAEAE6A25}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A55D777D-069C-4F46-A160-78E727366923}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D86D2CC-24F3-41DB-9DB4-2F6B5E4F7879}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14415,7 +14415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC93213C-3691-448C-A02F-B775E44CA738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAFD2D7-E5D3-4F41-AC2F-F920F1A021F8}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15701,18 +15701,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D35727FE-D0E9-44CB-A97D-D3258074E3D7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40944BED-14B4-4BBD-BDA9-26F840022C83}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A9A7DEB1-13F5-44C1-992B-976A07D795D6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7FA203A8-8AB9-45B5-92CC-3343B775A13B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53D92291-C3C0-47F3-822C-83C858020D43}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82A68249-D416-459F-8ADD-057ED5F29A4E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D56EE495-F09A-4499-B265-B667981D9C66}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D81EA0B6-8CF8-4FFD-BD94-D28E63589398}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B4E02FC-160E-468D-BE64-F842E188F963}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA8CCFC3-C3A8-4583-BE9C-BA9C39FF702D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD46A568-7E96-4C96-92BA-C30AD4E84F95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{295760E1-96DE-4D5D-9478-C054F6EF5F1A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25AEB6BA-3AC3-4D55-BF39-4CB800444280}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8052F4B9-EE29-498E-B1B0-7B40D5E6146C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9CB139A8-DBB0-41D5-BEE6-C47473A40E70}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5AA4A5D1-E4B0-4985-B52A-26B5E819A2AF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FACF4BF4-EEFC-44B1-AE45-9AE863CD8730}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C53AA98-8CC1-45A6-A9A7-AB9971078084}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F32B0D17-FBBE-4EEB-8ED1-DAF8551902E5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D92C7FE9-5246-4994-89CB-6C7ECFFD74EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA17BB1F-1FFC-4E7E-BC54-36BF4DF42D8A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4928BB9A-0260-4367-9252-16D74268F885}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83F24011-F98C-4B4E-95EB-9811D5D662BE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A22DF932-BB3F-410D-BC4D-DD48A49E7E09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15725,7 +15725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B8457F-C337-4D35-B26D-3EE24C21E853}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBE0165-7116-4D1B-95CA-8E4EAC7E2091}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -17011,18 +17011,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2A24E2E-425E-4377-8C1C-84225B739215}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A248ED09-8DCF-4D53-991A-28A524B4B768}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{88BDDC10-21DF-4BBE-8437-1A66A31C599C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A1CBF42-7616-4CE7-98B6-9EF3029AB484}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C8B43D5C-FDD1-4ED1-B2FB-83B4DD946932}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C88614FE-EFBD-47AC-B78F-8DED7CBEACAD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4377BCF7-8969-4483-9162-B505357534EF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F32010E3-4403-400C-ABB0-2F08383CF0D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C156E2E-DAC7-4078-8698-C4BDD784A74C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91BC1326-FA99-4CF6-9216-508385B91F01}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F7ADE7F-0760-414F-B22F-F6AD64912ACD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF2FA3AF-18C9-41AE-9F91-0646D61EA92C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07661F27-7B3B-44CE-AE90-CA8622B29C52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0F1A6BE-9C5F-491B-9B6F-F08535B305C0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8604469D-01A6-4E62-B2B5-DDA73E2FC2DC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02CD2270-BB44-4E95-8228-938F9C4352CE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4AA2961-4EF7-4C63-99CB-248FD668D889}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F742B5DB-BA79-4D19-AE5E-0CC2E2BA8BE7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A37FD6A-1B0B-48C9-A53F-1846D8A00104}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61AEECB8-DA50-4A08-A5ED-A8341CC594C6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{515971C6-D04C-463F-B067-5D981A55E76B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B0CAD10-616C-482A-A927-EE8F4CBED967}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A35A325-7C00-42A3-954F-3762B083EE85}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1EC4D49A-C069-42B9-A544-0D356818554B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
